--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha1.xlsx
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N2">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O2">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P2">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q2">
-        <v>1.0408873161</v>
+        <v>0.9718598475964999</v>
       </c>
       <c r="R2">
-        <v>4.163549264399999</v>
+        <v>3.887439390386</v>
       </c>
       <c r="S2">
-        <v>0.169206240201503</v>
+        <v>0.1384878346805372</v>
       </c>
       <c r="T2">
-        <v>0.1219902218933505</v>
+        <v>0.1063209634553489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N3">
         <v>16.215298</v>
       </c>
       <c r="O3">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P3">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q3">
-        <v>1.229984404293333</v>
+        <v>0.9762717441363331</v>
       </c>
       <c r="R3">
-        <v>7.37990642576</v>
+        <v>5.857630464817999</v>
       </c>
       <c r="S3">
-        <v>0.1999457898447153</v>
+        <v>0.1391165199792941</v>
       </c>
       <c r="T3">
-        <v>0.2162281181895329</v>
+        <v>0.1602054339741137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H4">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I4">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J4">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N4">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O4">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P4">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q4">
-        <v>0.5194743472666666</v>
+        <v>0.3597607547956667</v>
       </c>
       <c r="R4">
-        <v>3.1168460836</v>
+        <v>2.158564528774</v>
       </c>
       <c r="S4">
-        <v>0.08444554931407966</v>
+        <v>0.05126509553605205</v>
       </c>
       <c r="T4">
-        <v>0.09132226405890218</v>
+        <v>0.05903646007893253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H5">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I5">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J5">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N5">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O5">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P5">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q5">
-        <v>1.12128551568</v>
+        <v>1.046927352981</v>
       </c>
       <c r="R5">
-        <v>4.48514206272</v>
+        <v>4.187709411924</v>
       </c>
       <c r="S5">
-        <v>0.1822757404821606</v>
+        <v>0.149184784761641</v>
       </c>
       <c r="T5">
-        <v>0.1314127540492211</v>
+        <v>0.1145333096248177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H6">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I6">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J6">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N6">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O6">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P6">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q6">
-        <v>0.6305349294133332</v>
+        <v>1.4768686244995</v>
       </c>
       <c r="R6">
-        <v>3.783209576479999</v>
+        <v>8.861211746996998</v>
       </c>
       <c r="S6">
-        <v>0.1024995146655243</v>
+        <v>0.2104504455250176</v>
       </c>
       <c r="T6">
-        <v>0.1108464308684844</v>
+        <v>0.2423529927315544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H7">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I7">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J7">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N7">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O7">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P7">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q7">
-        <v>0.73720656184</v>
+        <v>0.2803289764765</v>
       </c>
       <c r="R7">
-        <v>4.42323937104</v>
+        <v>1.681973858859</v>
       </c>
       <c r="S7">
-        <v>0.1198400140451314</v>
+        <v>0.03994624641243542</v>
       </c>
       <c r="T7">
-        <v>0.1295990315220477</v>
+        <v>0.0460017670302104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,19 +912,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H8">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I8">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J8">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.5741225</v>
+        <v>5.380673</v>
       </c>
       <c r="N8">
-        <v>9.148244999999999</v>
+        <v>10.761346</v>
       </c>
       <c r="O8">
-        <v>0.1971611593636388</v>
+        <v>0.1901127853194472</v>
       </c>
       <c r="P8">
-        <v>0.1522216139584879</v>
+        <v>0.1459548742817064</v>
       </c>
       <c r="Q8">
-        <v>0.1719671848025</v>
+        <v>0.362286093763</v>
       </c>
       <c r="R8">
-        <v>1.031803108815</v>
+        <v>1.449144375052</v>
       </c>
       <c r="S8">
-        <v>0.02795491916213586</v>
+        <v>0.05162495063891003</v>
       </c>
       <c r="T8">
-        <v>0.03023139206513739</v>
+        <v>0.03963391082635746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,19 +974,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H9">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I9">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J9">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.405099333333333</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N9">
         <v>16.215298</v>
       </c>
       <c r="O9">
-        <v>0.2329792547172996</v>
+        <v>0.1909758294526144</v>
       </c>
       <c r="P9">
-        <v>0.2698133721143063</v>
+        <v>0.2199261859093095</v>
       </c>
       <c r="Q9">
-        <v>0.2032083128362222</v>
+        <v>0.3639307432126666</v>
       </c>
       <c r="R9">
-        <v>1.828874815526</v>
+        <v>2.183584459276</v>
       </c>
       <c r="S9">
-        <v>0.03303346487258437</v>
+        <v>0.05185930947332031</v>
       </c>
       <c r="T9">
-        <v>0.05358525392477335</v>
+        <v>0.05972075193519587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H10">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I10">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J10">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.282801666666667</v>
+        <v>1.991804666666667</v>
       </c>
       <c r="N10">
-        <v>6.848405000000001</v>
+        <v>5.975414</v>
       </c>
       <c r="O10">
-        <v>0.09839697629375842</v>
+        <v>0.07037549633517463</v>
       </c>
       <c r="P10">
-        <v>0.1139535793085317</v>
+        <v>0.08104383960437181</v>
       </c>
       <c r="Q10">
-        <v>0.08582345052611109</v>
+        <v>0.1341102000113333</v>
       </c>
       <c r="R10">
-        <v>0.7724110547349999</v>
+        <v>0.804661200068</v>
       </c>
       <c r="S10">
-        <v>0.01395142697967877</v>
+        <v>0.01911040079912258</v>
       </c>
       <c r="T10">
-        <v>0.02263131524962955</v>
+        <v>0.02200737952543928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H11">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I11">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J11">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.927428</v>
+        <v>5.796282</v>
       </c>
       <c r="N11">
-        <v>9.854856</v>
+        <v>11.592564</v>
       </c>
       <c r="O11">
-        <v>0.2123898992999982</v>
+        <v>0.2047973024038027</v>
       </c>
       <c r="P11">
-        <v>0.1639792206754944</v>
+        <v>0.1572285865748239</v>
       </c>
       <c r="Q11">
-        <v>0.185249940612</v>
+        <v>0.390269463342</v>
       </c>
       <c r="R11">
-        <v>1.111499643672</v>
+        <v>1.561077853368</v>
       </c>
       <c r="S11">
-        <v>0.0301141588178377</v>
+        <v>0.05561251764216163</v>
       </c>
       <c r="T11">
-        <v>0.0325664666262733</v>
+        <v>0.04269527695000623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H12">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I12">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J12">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.770851333333333</v>
+        <v>8.176639</v>
       </c>
       <c r="N12">
-        <v>8.312553999999999</v>
+        <v>24.529917</v>
       </c>
       <c r="O12">
-        <v>0.1194336752687066</v>
+        <v>0.2889013353611378</v>
       </c>
       <c r="P12">
-        <v>0.1383161891703911</v>
+        <v>0.3326963887115693</v>
       </c>
       <c r="Q12">
-        <v>0.1041720031108889</v>
+        <v>0.550541280509</v>
       </c>
       <c r="R12">
-        <v>0.9375480279979997</v>
+        <v>3.303247683054</v>
       </c>
       <c r="S12">
-        <v>0.01693416060318229</v>
+        <v>0.07845088983612025</v>
       </c>
       <c r="T12">
-        <v>0.02746975830190665</v>
+        <v>0.09034339598001494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.03759566666666666</v>
+        <v>0.067331</v>
       </c>
       <c r="H13">
-        <v>0.112787</v>
+        <v>0.134662</v>
       </c>
       <c r="I13">
-        <v>0.1417871514468859</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="J13">
-        <v>0.1986011794184611</v>
+        <v>0.2715490731050226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.239614</v>
+        <v>1.552033</v>
       </c>
       <c r="N13">
-        <v>9.718842</v>
+        <v>4.656098999999999</v>
       </c>
       <c r="O13">
-        <v>0.1396390350565984</v>
+        <v>0.05483725112782315</v>
       </c>
       <c r="P13">
-        <v>0.1617160247727885</v>
+        <v>0.06315012491821921</v>
       </c>
       <c r="Q13">
-        <v>0.1217954480726666</v>
+        <v>0.104499933923</v>
       </c>
       <c r="R13">
-        <v>1.096159032654</v>
+        <v>0.6269996035379999</v>
       </c>
       <c r="S13">
-        <v>0.01979902101146692</v>
+        <v>0.01489100471538773</v>
       </c>
       <c r="T13">
-        <v>0.03211699325074088</v>
+        <v>0.01714835788800882</v>
       </c>
     </row>
   </sheetData>
